--- a/GraduationProject/eventmatrix1.xlsx
+++ b/GraduationProject/eventmatrix1.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="19">
   <si>
     <t>e1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +103,110 @@
         "x"
     ],
     "relationStr": "SELF"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"guard": "表示事件关系转换发生的时间约束，以JSON数组表示，其中variable表示时间变量，condition表示这个时间变量需要满足的条件",
+    "times": 循环事件中SELF关系中才有意义，表示循环的次数，使用int表示；当relationStr不为："SELF"时无效，默认为0；
+    "probability": 事件关系转换发生的概率，double类型,
+    "itemToBeCleared": [
+        需要进行重置的时钟变量，以字符串数组表示。
+    ],
+    "relationStr": 表示事件之间的关系，以字符串表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "guard": [
+    ],
+    "times": 0,
+    "probability": 0,
+    "itemToBeCleared": [
+        "x"
+    ],
+    "relationStr": "&lt;&gt;"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "guard": [
+    ],
+    "times": 0,
+    "probability": 0,
+    "itemToBeCleared": [
+        "x"
+    ],
+    "relationStr": "SELF"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "guard": [
+    ],
+    "times": 0,
+    "probability": 0,
+    "itemToBeCleared": [
+        "x"
+    ],
+    "relationStr": "SELF"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "guard": [
+    ],
+    "times": 0,
+    "probability": 0,
+    "itemToBeCleared": [
+        "x"
+    ],
+    "relationStr": "&lt;&gt;"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "guard": [
+    ],
+    "times": 0,
+    "probability": 0,
+    "itemToBeCleared": [
+        "x"
+    ],
+    "relationStr": "&lt;&gt;"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "guard": [
+    ],
+    "times": 0,
+    "probability": 1,
+    "itemToBeCleared": [
+        "x"
+    ],
+    "relationStr": "&lt;&lt;"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -454,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -499,4 +607,201 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>